--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/23,12,25 Ост СЫР филиалы/дв 23,12,25 бррсч ост сыр от Холодова.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/23,12,25 Ост СЫР филиалы/дв 23,12,25 бррсч ост сыр от Холодова.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\23,12,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\12,25\23,12,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8A5ED7-0CD3-4D5B-A1B3-0098A2AFA884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69EBA83-F742-4770-AA76-09194FED9D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,7 +911,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
+      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1376,7 +1376,9 @@
       <c r="G6" s="3">
         <v>0.82450000000000001</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>180</v>
+      </c>
       <c r="I6" s="2">
         <v>6948249</v>
       </c>
@@ -1485,7 +1487,9 @@
       <c r="G7" s="3">
         <v>0.372</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>180</v>
+      </c>
       <c r="I7" s="2">
         <v>6948256</v>
       </c>
@@ -1596,7 +1600,9 @@
       <c r="G8" s="3">
         <v>0.74399999999999999</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>180</v>
+      </c>
       <c r="I8" s="2">
         <v>6948263</v>
       </c>
@@ -1707,7 +1713,9 @@
       <c r="G9" s="3">
         <v>0.372</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>180</v>
+      </c>
       <c r="I9" s="2">
         <v>6948270</v>
       </c>
@@ -1818,7 +1826,9 @@
       <c r="G10" s="3">
         <v>0.74399999999999999</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>180</v>
+      </c>
       <c r="I10" s="2">
         <v>6948287</v>
       </c>
